--- a/BM(최종).xlsx
+++ b/BM(최종).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnbv6\Desktop\BM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnbv6\Desktop\투캉 공유 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09FC348-A090-4731-9A81-8A3FB10150EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107228E5-A3F0-48FB-982B-0C059B8020AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{392C83F7-62C7-494A-8A61-050AF5CF3C50}"/>
   </bookViews>
@@ -3446,9 +3446,6 @@
     <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3487,6 +3484,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4281,8 +4281,8 @@
   <dimension ref="A1:P455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O156" sqref="O156"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9582,11 +9582,11 @@
         <v>2000</v>
       </c>
       <c r="F144" s="134">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="G144" s="61">
         <f>0.25*F144+E144</f>
-        <v>7000</v>
+        <v>10750</v>
       </c>
       <c r="H144" s="62">
         <v>1100</v>
@@ -9597,15 +9597,15 @@
       </c>
       <c r="J144" s="63">
         <f t="shared" si="47"/>
-        <v>0.15714285714285714</v>
+        <v>0.10232558139534884</v>
       </c>
       <c r="K144" s="63">
         <f t="shared" si="48"/>
-        <v>6.3636363636363633</v>
+        <v>9.7727272727272734</v>
       </c>
       <c r="L144" s="45">
         <f t="shared" ref="L144" si="62">K144/K$2</f>
-        <v>3.0036363636363634</v>
+        <v>4.6127272727272723</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>607</v>
@@ -9626,11 +9626,11 @@
         <v>10000</v>
       </c>
       <c r="F145" s="134">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="G145" s="61">
         <f>0.25*F145+E145</f>
-        <v>35000</v>
+        <v>52500</v>
       </c>
       <c r="H145" s="62">
         <v>5500</v>
@@ -9641,15 +9641,15 @@
       </c>
       <c r="J145" s="63">
         <f t="shared" si="47"/>
-        <v>0.15714285714285714</v>
+        <v>0.10476190476190476</v>
       </c>
       <c r="K145" s="63">
         <f t="shared" si="48"/>
-        <v>6.3636363636363633</v>
+        <v>9.545454545454545</v>
       </c>
       <c r="L145" s="45">
         <f t="shared" ref="L145" si="63">K145/K$2</f>
-        <v>3.0036363636363634</v>
+        <v>4.5054545454545449</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>607</v>
@@ -9670,11 +9670,11 @@
         <v>20000</v>
       </c>
       <c r="F146" s="134">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="G146" s="61">
         <f>0.25*F146+E146</f>
-        <v>70000</v>
+        <v>107500</v>
       </c>
       <c r="H146" s="62">
         <v>11000</v>
@@ -9685,15 +9685,15 @@
       </c>
       <c r="J146" s="63">
         <f t="shared" si="47"/>
-        <v>0.15714285714285714</v>
+        <v>0.10232558139534884</v>
       </c>
       <c r="K146" s="63">
         <f t="shared" si="48"/>
-        <v>6.3636363636363633</v>
+        <v>9.7727272727272734</v>
       </c>
       <c r="L146" s="45">
         <f>K146/K$2</f>
-        <v>3.0036363636363634</v>
+        <v>4.6127272727272723</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>607</v>
@@ -10382,14 +10382,14 @@
         <v>462</v>
       </c>
       <c r="E165" s="148">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="F165" s="129">
-        <v>280000</v>
+        <v>250000</v>
       </c>
       <c r="G165" s="48">
         <f>(F165/7500*2500)+E165</f>
-        <v>107333.33333333334</v>
+        <v>103333.33333333334</v>
       </c>
       <c r="H165" s="49">
         <v>11000</v>
@@ -10400,15 +10400,15 @@
       </c>
       <c r="J165" s="50">
         <f t="shared" si="67"/>
-        <v>0.10248447204968943</v>
+        <v>0.1064516129032258</v>
       </c>
       <c r="K165" s="50">
         <f t="shared" si="68"/>
-        <v>9.7575757575757578</v>
+        <v>9.3939393939393945</v>
       </c>
       <c r="L165" s="45">
         <f t="shared" ref="L165:L171" si="75">K165/K$2</f>
-        <v>4.6055757575757577</v>
+        <v>4.4339393939393936</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>607</v>
@@ -10426,14 +10426,14 @@
         <v>462</v>
       </c>
       <c r="E166" s="148">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F166" s="129">
-        <v>850000</v>
+        <v>800000</v>
       </c>
       <c r="G166" s="48">
         <f t="shared" ref="G166:G167" si="76">(F166/7500*2500)+E166</f>
-        <v>325333.33333333331</v>
+        <v>311666.66666666669</v>
       </c>
       <c r="H166" s="49">
         <v>33000</v>
@@ -10444,15 +10444,15 @@
       </c>
       <c r="J166" s="50">
         <f t="shared" si="67"/>
-        <v>0.1014344262295082</v>
+        <v>0.10588235294117647</v>
       </c>
       <c r="K166" s="50">
         <f t="shared" si="68"/>
-        <v>9.8585858585858581</v>
+        <v>9.4444444444444446</v>
       </c>
       <c r="L166" s="45">
         <f t="shared" si="75"/>
-        <v>4.6532525252525243</v>
+        <v>4.4577777777777774</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>607</v>
@@ -10473,11 +10473,11 @@
         <v>70000</v>
       </c>
       <c r="F167" s="129">
-        <v>1400000</v>
+        <v>1350000</v>
       </c>
       <c r="G167" s="48">
         <f t="shared" si="76"/>
-        <v>536666.66666666663</v>
+        <v>520000</v>
       </c>
       <c r="H167" s="49">
         <v>55000</v>
@@ -10488,15 +10488,15 @@
       </c>
       <c r="J167" s="50">
         <f t="shared" si="67"/>
-        <v>0.10248447204968945</v>
+        <v>0.10576923076923077</v>
       </c>
       <c r="K167" s="50">
         <f t="shared" si="68"/>
-        <v>9.757575757575756</v>
+        <v>9.454545454545455</v>
       </c>
       <c r="L167" s="45">
         <f t="shared" si="75"/>
-        <v>4.6055757575757568</v>
+        <v>4.4625454545454541</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>607</v>
@@ -10514,14 +10514,14 @@
         <v>463</v>
       </c>
       <c r="E168" s="131">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="F168" s="137">
-        <v>224000</v>
+        <v>340000</v>
       </c>
       <c r="G168" s="61">
-        <f t="shared" ref="G165:G170" si="77">0.25*F168+E168</f>
-        <v>70000</v>
+        <f>0.25*F168+E168</f>
+        <v>105000</v>
       </c>
       <c r="H168" s="62">
         <v>11000</v>
@@ -10532,15 +10532,15 @@
       </c>
       <c r="J168" s="63">
         <f t="shared" si="67"/>
-        <v>0.15714285714285714</v>
+        <v>0.10476190476190476</v>
       </c>
       <c r="K168" s="63">
         <f t="shared" si="68"/>
-        <v>6.3636363636363633</v>
+        <v>9.545454545454545</v>
       </c>
       <c r="L168" s="45">
         <f t="shared" si="75"/>
-        <v>3.0036363636363634</v>
+        <v>4.5054545454545449</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>607</v>
@@ -10558,14 +10558,14 @@
         <v>463</v>
       </c>
       <c r="E169" s="131">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="F169" s="137">
-        <v>672000</v>
+        <v>1100000</v>
       </c>
       <c r="G169" s="61">
-        <f t="shared" si="77"/>
-        <v>210000</v>
+        <f t="shared" ref="G168:G170" si="77">0.25*F169+E169</f>
+        <v>320000</v>
       </c>
       <c r="H169" s="62">
         <v>33000</v>
@@ -10576,15 +10576,15 @@
       </c>
       <c r="J169" s="63">
         <f t="shared" si="67"/>
-        <v>0.15714285714285714</v>
+        <v>0.10312499999999999</v>
       </c>
       <c r="K169" s="63">
         <f t="shared" si="68"/>
-        <v>6.3636363636363633</v>
+        <v>9.6969696969696972</v>
       </c>
       <c r="L169" s="45">
         <f t="shared" si="75"/>
-        <v>3.0036363636363634</v>
+        <v>4.5769696969696971</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>607</v>
@@ -10605,11 +10605,11 @@
         <v>70000</v>
       </c>
       <c r="F170" s="137">
-        <v>1120000</v>
+        <v>1800000</v>
       </c>
       <c r="G170" s="61">
         <f t="shared" si="77"/>
-        <v>350000</v>
+        <v>520000</v>
       </c>
       <c r="H170" s="62">
         <v>55000</v>
@@ -10620,15 +10620,15 @@
       </c>
       <c r="J170" s="63">
         <f t="shared" si="67"/>
-        <v>0.15714285714285714</v>
+        <v>0.10576923076923077</v>
       </c>
       <c r="K170" s="63">
         <f t="shared" si="68"/>
-        <v>6.3636363636363633</v>
+        <v>9.454545454545455</v>
       </c>
       <c r="L170" s="45">
         <f t="shared" si="75"/>
-        <v>3.0036363636363634</v>
+        <v>4.4625454545454541</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>607</v>
@@ -13665,7 +13665,7 @@
       <c r="B253" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="D253" s="164" t="s">
+      <c r="D253" s="177" t="s">
         <v>443</v>
       </c>
       <c r="E253" s="138"/>
@@ -13700,7 +13700,7 @@
       <c r="B254" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D254" s="164"/>
+      <c r="D254" s="177"/>
       <c r="F254" s="117"/>
       <c r="G254" s="17"/>
       <c r="H254" s="9"/>
@@ -13709,7 +13709,7 @@
       <c r="K254" s="6"/>
     </row>
     <row r="255" spans="1:12">
-      <c r="D255" s="164"/>
+      <c r="D255" s="177"/>
       <c r="F255" s="117"/>
       <c r="G255" s="17"/>
       <c r="H255" s="9"/>
@@ -13727,7 +13727,7 @@
       <c r="B257" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="D257" s="164" t="s">
+      <c r="D257" s="177" t="s">
         <v>501</v>
       </c>
       <c r="E257" s="138"/>
@@ -13762,15 +13762,15 @@
       <c r="B258" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D258" s="164"/>
+      <c r="D258" s="177"/>
       <c r="E258" s="138"/>
     </row>
     <row r="259" spans="1:13">
-      <c r="D259" s="164"/>
+      <c r="D259" s="177"/>
       <c r="E259" s="138"/>
     </row>
     <row r="260" spans="1:13" ht="13.5" customHeight="1">
-      <c r="D260" s="164"/>
+      <c r="D260" s="177"/>
       <c r="E260" s="138"/>
     </row>
     <row r="261" spans="1:13">
@@ -13783,7 +13783,7 @@
       <c r="B262" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="D262" s="164" t="s">
+      <c r="D262" s="177" t="s">
         <v>442</v>
       </c>
       <c r="E262" s="138"/>
@@ -13818,15 +13818,15 @@
       <c r="B263" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D263" s="164"/>
+      <c r="D263" s="177"/>
       <c r="E263" s="138"/>
     </row>
     <row r="264" spans="1:13">
-      <c r="D264" s="164"/>
+      <c r="D264" s="177"/>
       <c r="E264" s="138"/>
     </row>
     <row r="265" spans="1:13">
-      <c r="D265" s="164"/>
+      <c r="D265" s="177"/>
       <c r="E265" s="138"/>
     </row>
     <row r="267" spans="1:13" s="55" customFormat="1">
@@ -13853,35 +13853,35 @@
       <c r="A269" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B269" s="165" t="s">
+      <c r="B269" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="C269" s="166" t="s">
+      <c r="C269" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="D269" s="176" t="s">
+      <c r="D269" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="E269" s="177">
+      <c r="E269" s="176">
         <v>80000</v>
       </c>
-      <c r="F269" s="177"/>
-      <c r="G269" s="174">
+      <c r="F269" s="176"/>
+      <c r="G269" s="173">
         <f t="shared" ref="G269:G288" si="104">E269</f>
         <v>80000</v>
       </c>
-      <c r="H269" s="169">
+      <c r="H269" s="168">
         <v>5500</v>
       </c>
-      <c r="I269" s="170">
+      <c r="I269" s="169">
         <f t="shared" ref="I269:I288" si="105">H269/10</f>
         <v>550</v>
       </c>
-      <c r="J269" s="175">
+      <c r="J269" s="174">
         <f t="shared" ref="J269:J288" si="106">H269/G269</f>
         <v>6.8750000000000006E-2</v>
       </c>
-      <c r="K269" s="175">
+      <c r="K269" s="174">
         <f t="shared" ref="K269:K288" si="107">G269/H269</f>
         <v>14.545454545454545</v>
       </c>
@@ -14740,37 +14740,37 @@
       <c r="A291" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B291" s="165" t="s">
+      <c r="B291" s="164" t="s">
         <v>174</v>
       </c>
-      <c r="C291" s="166" t="s">
+      <c r="C291" s="165" t="s">
         <v>320</v>
       </c>
-      <c r="D291" s="173" t="s">
+      <c r="D291" s="172" t="s">
         <v>516</v>
       </c>
-      <c r="E291" s="167">
+      <c r="E291" s="166">
         <v>4800</v>
       </c>
-      <c r="F291" s="167">
+      <c r="F291" s="166">
         <v>190</v>
       </c>
-      <c r="G291" s="174">
+      <c r="G291" s="173">
         <f>F291*100+E291</f>
         <v>23800</v>
       </c>
-      <c r="H291" s="169">
+      <c r="H291" s="168">
         <v>1100</v>
       </c>
-      <c r="I291" s="170">
+      <c r="I291" s="169">
         <f t="shared" ref="I291:I307" si="113">H291/10</f>
         <v>110</v>
       </c>
-      <c r="J291" s="175">
+      <c r="J291" s="174">
         <f t="shared" ref="J291:J298" si="114">H291/G291</f>
         <v>4.6218487394957986E-2</v>
       </c>
-      <c r="K291" s="175">
+      <c r="K291" s="174">
         <f t="shared" ref="K291:K298" si="115">G291/H291</f>
         <v>21.636363636363637</v>
       </c>
@@ -15128,37 +15128,37 @@
       <c r="A300" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B300" s="165" t="s">
+      <c r="B300" s="164" t="s">
         <v>493</v>
       </c>
-      <c r="C300" s="166" t="s">
+      <c r="C300" s="165" t="s">
         <v>320</v>
       </c>
-      <c r="D300" s="173" t="s">
+      <c r="D300" s="172" t="s">
         <v>520</v>
       </c>
-      <c r="E300" s="167">
+      <c r="E300" s="166">
         <v>4800</v>
       </c>
-      <c r="F300" s="167">
+      <c r="F300" s="166">
         <v>190</v>
       </c>
-      <c r="G300" s="174">
+      <c r="G300" s="173">
         <f>F300*100+E300</f>
         <v>23800</v>
       </c>
-      <c r="H300" s="169">
+      <c r="H300" s="168">
         <v>1100</v>
       </c>
-      <c r="I300" s="170">
+      <c r="I300" s="169">
         <f t="shared" si="113"/>
         <v>110</v>
       </c>
-      <c r="J300" s="175">
+      <c r="J300" s="174">
         <f t="shared" ref="J300:J307" si="119">H300/G300</f>
         <v>4.6218487394957986E-2</v>
       </c>
-      <c r="K300" s="175">
+      <c r="K300" s="174">
         <f t="shared" ref="K300:K307" si="120">G300/H300</f>
         <v>21.636363636363637</v>
       </c>
@@ -15530,37 +15530,37 @@
       <c r="A310" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B310" s="165" t="s">
+      <c r="B310" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="C310" s="166" t="s">
+      <c r="C310" s="165" t="s">
         <v>320</v>
       </c>
-      <c r="D310" s="173" t="s">
+      <c r="D310" s="172" t="s">
         <v>518</v>
       </c>
-      <c r="E310" s="167">
+      <c r="E310" s="166">
         <v>4500</v>
       </c>
-      <c r="F310" s="167">
+      <c r="F310" s="166">
         <v>130</v>
       </c>
-      <c r="G310" s="168">
+      <c r="G310" s="167">
         <f>F310*150+E310</f>
         <v>24000</v>
       </c>
-      <c r="H310" s="169">
+      <c r="H310" s="168">
         <v>1100</v>
       </c>
-      <c r="I310" s="170">
+      <c r="I310" s="169">
         <f t="shared" ref="I310:I326" si="124">H310/10</f>
         <v>110</v>
       </c>
-      <c r="J310" s="171">
+      <c r="J310" s="170">
         <f t="shared" ref="J310:J317" si="125">H310/G310</f>
         <v>4.583333333333333E-2</v>
       </c>
-      <c r="K310" s="171">
+      <c r="K310" s="170">
         <f t="shared" ref="K310:K317" si="126">G310/H310</f>
         <v>21.818181818181817</v>
       </c>
@@ -15902,41 +15902,41 @@
       <c r="A319" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B319" s="165" t="s">
+      <c r="B319" s="164" t="s">
         <v>190</v>
       </c>
-      <c r="C319" s="166" t="s">
+      <c r="C319" s="165" t="s">
         <v>320</v>
       </c>
-      <c r="D319" s="166" t="s">
+      <c r="D319" s="165" t="s">
         <v>519</v>
       </c>
-      <c r="E319" s="167">
+      <c r="E319" s="166">
         <v>4500</v>
       </c>
-      <c r="F319" s="167">
+      <c r="F319" s="166">
         <v>130</v>
       </c>
-      <c r="G319" s="168">
+      <c r="G319" s="167">
         <f>F319*150+E319</f>
         <v>24000</v>
       </c>
-      <c r="H319" s="169">
+      <c r="H319" s="168">
         <v>1100</v>
       </c>
-      <c r="I319" s="170">
+      <c r="I319" s="169">
         <f t="shared" si="124"/>
         <v>110</v>
       </c>
-      <c r="J319" s="171">
+      <c r="J319" s="170">
         <f t="shared" ref="J319:J326" si="129">H319/G319</f>
         <v>4.583333333333333E-2</v>
       </c>
-      <c r="K319" s="171">
+      <c r="K319" s="170">
         <f t="shared" ref="K319:K326" si="130">G319/H319</f>
         <v>21.818181818181817</v>
       </c>
-      <c r="L319" s="172">
+      <c r="L319" s="171">
         <f t="shared" ref="L319:L326" si="131">K319/K$2</f>
         <v>10.298181818181817</v>
       </c>
